--- a/15-SPI—读写串行FLASH（W25Q128）/外部存储器规划.xlsx
+++ b/15-SPI—读写串行FLASH（W25Q128）/外部存储器规划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="幼圆"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>序号</t>
@@ -39,6 +40,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="幼圆"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>功能</t>
@@ -51,6 +53,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="幼圆"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>起始地址</t>
@@ -63,6 +66,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="幼圆"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>长度</t>
@@ -72,107 +76,6 @@
     <t>文件名/工程</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>flash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读写例程</t>
-    </r>
-  </si>
-  <si>
-    <t>预留给裸机Flash测试</t>
-  </si>
-  <si>
-    <t>4096YTE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>外部</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Flash</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="幼圆"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用情况说明（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>W25Q128</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="幼圆"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>144*4096(576KB)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>61*4096(172KB)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>529*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>app.c</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XBF</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -181,7 +84,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>字库文件（</t>
+      <t>外部</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +93,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>emWin</t>
+      <t>flash</t>
     </r>
     <r>
       <rPr>
@@ -200,16 +103,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,songti.xbf</t>
+      <t>读写例程</t>
+    </r>
+  </si>
+  <si>
+    <t>预留给裸机Flash测试</t>
+  </si>
+  <si>
+    <t>4096YTE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>144*4096(576KB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>61*4096(172KB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>529*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XBF</t>
     </r>
     <r>
       <rPr>
@@ -219,23 +141,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>60*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>649*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>firecc936.c</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t>字库文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>emWin</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -244,7 +160,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>文件系统中文支持字库</t>
+      <t>使用</t>
     </r>
     <r>
       <rPr>
@@ -253,7 +169,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(emWin</t>
+      <t>,songti.xbf</t>
     </r>
     <r>
       <rPr>
@@ -263,29 +179,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,UNIGBK.BIN)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1240*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>43*4096(172KB)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>裸机中文显示例程</t>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>649*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>firecc936.c</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -297,7 +204,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>裸机中文字库（</t>
+      <t>文件系统中文支持字库</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +213,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>GB2312_H2424.FON</t>
+      <t>(emWin</t>
     </r>
     <r>
       <rPr>
@@ -316,34 +223,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1360*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1*4096 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>59*4096Byte</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>710*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WIFI8782</t>
-    </r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,UNIGBK.BIN)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1240*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>43*4096(172KB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸机中文显示例程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -352,13 +257,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>模块</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WIFI</t>
+      <t>裸机中文字库（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GB2312_H2424.FON</t>
     </r>
     <r>
       <rPr>
@@ -368,6 +276,58 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1360*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1*4096 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>59*4096Byte</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>710*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WIFI8782</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WIFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>模块固件</t>
     </r>
     <r>
@@ -399,6 +359,54 @@
   </si>
   <si>
     <t>2560*4096(10MB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>外部</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flash</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用情况说明（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>W25Q128/W25Q256</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -432,6 +440,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -445,11 +454,13 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -462,14 +473,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -665,76 +668,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,6 +715,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,530 +1155,609 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="23"/>
+      <c r="L25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13" t="s">
+      <c r="K26" s="31"/>
+      <c r="L26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>4</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13" t="s">
+      <c r="K28" s="31"/>
+      <c r="L28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>6</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="24" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="K29" s="23"/>
+      <c r="L29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="K30" s="31"/>
+      <c r="L30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="24" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="23"/>
+      <c r="L31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A21:M22"/>
     <mergeCell ref="A32:M33"/>
@@ -1692,85 +1774,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,7 +1787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,7 +1800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
